--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4">
-        <v>45621</v>
+        <v>45629</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>16</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="4">
-        <v>45606</v>
+        <v>45629</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="4">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>45627</v>
+        <v>45632</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>16</v>
@@ -655,11 +655,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -667,21 +667,21 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>45629</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
+        <v>45612</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>45612</v>
+        <v>45629</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>45632</v>
+        <v>45633</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="4">
-        <v>45630</v>
+        <v>45633</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>files.py</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>tzdata</t>
+  </si>
+  <si>
+    <t>decorator.py</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,85 +531,82 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45634</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>45629</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" s="4">
+        <v>45629</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45632</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
       </c>
       <c r="B5" s="4">
         <v>45632</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
-        <v>45629</v>
+        <v>45632</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>45629</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>45629</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>45629</v>
@@ -615,97 +615,111 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="4">
-        <v>45633</v>
+        <v>45629</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="4">
-        <v>45606</v>
+        <v>45633</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>45633</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
+        <v>45606</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45634</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <v>45632</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <v>45612</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>45629</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
+        <v>45612</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45629</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
-        <v>45629</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B17" s="4">
+        <v>45629</v>
+      </c>
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
-        <v>45629</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B18" s="4">
+        <v>45629</v>
+      </c>
+      <c r="D18" t="s">
         <v>18</v>
       </c>
     </row>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>45632</v>
+        <v>45636</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="4">
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>45629</v>
+        <v>45638</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="4">
-        <v>45636</v>
+        <v>45641</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>45634</v>
+        <v>45641</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>

--- a/_utils.xlsx
+++ b/_utils.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>45637</v>
+        <v>45642</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
